--- a/literature_review/Literature_review_table_comparison_papers_XiaoyunYu.xlsx
+++ b/literature_review/Literature_review_table_comparison_papers_XiaoyunYu.xlsx
@@ -11,6 +11,7 @@
     <sheet name="websites" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
   <si>
     <t>paper name</t>
   </si>
@@ -208,9 +209,6 @@
     <t>A table listed, with scores from Tai et al., 2015; Kim, 2014; Socher et al., 2012; Socher, Pennington, et al., 2011; Kalchbrenner et al., 2014; Le and Mikolov, 2014; Irsoy and Cardie, 2014; etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s no need to use different colours in one bar graph, since the colours are not meaningful. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Accuracy. Have not stated why they use accuracy, and have not mentioned whether the datasets are balanced. </t>
   </si>
   <si>
@@ -241,9 +239,6 @@
     <t>A-CNN and LSTM-ATT Deep Learning Pipeline method. 'a machine learning data set was produced, and then an analysis framework of A-CNN and LSTM-ATT fusion was developed'</t>
   </si>
   <si>
-    <t>Argument component classification in academic writings</t>
-  </si>
-  <si>
     <t>Jes´us Miguel Garcia-Gorrostieta and Aurelio L´opez-L´opez</t>
   </si>
   <si>
@@ -265,10 +260,6 @@
     <t>have discussed related works using a whole section</t>
   </si>
   <si>
-    <t>our experiments showed that a document occurrence representation
-with unigrams achieved the best accuracy'</t>
-  </si>
-  <si>
     <t>https://scholarworks.sjsu.edu/cgi/viewcontent.cgi?article=8375&amp;context=etd_theses</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">Their choices of parameters for each ML model are useful. </t>
-  </si>
-  <si>
     <t>Kiri L. Wagstaff, Geoffrey Z. Liu</t>
   </si>
   <si>
@@ -360,9 +348,6 @@
   </si>
   <si>
     <t>mentioned</t>
-  </si>
-  <si>
-    <t>can seek for theoretical supports here</t>
   </si>
   <si>
     <t>Wolfgang Glänzel, András Schubert</t>
@@ -414,9 +399,6 @@
     <t>Precision, recall, F Measure</t>
   </si>
   <si>
-    <t>where the classification is based on a combination of criteria</t>
-  </si>
-  <si>
     <t>Compared with Del Fiol et al. and Marshall et al.</t>
   </si>
   <si>
@@ -495,9 +477,6 @@
     <t>present Smart Topic Miner (STM), a novel solution which uses semantic web technologies to classify scholarly publications on the basis of a very large automatically generated ontology of research areas; focus on the classification/annotation task</t>
   </si>
   <si>
-    <t>limitation: must use the metadata section, as Springer is using for each of its paper</t>
-  </si>
-  <si>
     <t>try to use their codes, FastAI library</t>
   </si>
   <si>
@@ -505,6 +484,60 @@
   </si>
   <si>
     <t>additional notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their codes must use a GPU to run. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their codes library FastAI is very slow, when running on my CPU devices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The basic classification of WoS is at the journal level and not at the article level'. 'The classification schema of WoS may change'. 'The BoW model ignores the sequential information.' Where are its codes and settings for the model? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s no need to use different colours in one bar graph, since the colours are not meaningful. Can't find their model settings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though I cannot find the exact codes for their model settings, they have states some hyperparameter settings, such as the batch size and epoch. </t>
+  </si>
+  <si>
+    <t>Argument Component Classification in Academic Writings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">our experiments showed that a document occurrence representation with unigrams achieved the best accuracy' What is IG value, mentioned in Table 13? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their choices of parameters for each ML model are useful. It's detailed in their Master's thesis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a flaw, but it's a minor drawback that it has not compared with other people's conclusions, since their usage of evaluation metrics is very distinctive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is not a technical paper, but a review or comment article in a librarianship journal. Its format (titles, indentations) is not authentic. </t>
+  </si>
+  <si>
+    <t>many fields and subfields for the Information Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just a comment article, no methods, short discussions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can seek for theoretical supports here; it is very old, published in 1976, so it's a foundation paper. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D pie charts may distort the true proportion of each category, so, avoid it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">where 'the classification is based on a combination of criteria'; it is good to see they have discussed about the impact of sampling ratio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only used abstracts and titles, which is rejected by Dewey. It is a very good model, but can't find the model settings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some tables just list numbers and models, without the name of metric, which are confusing. </t>
+  </si>
+  <si>
+    <t>limitation: must use the metadata section, as Springer is using for each of its paper; cannot find the codes or settings for its model</t>
   </si>
 </sst>
 </file>
@@ -862,9 +895,9 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +933,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>46</v>
@@ -927,7 +960,7 @@
         <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -967,8 +1000,11 @@
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="N2" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -1006,7 +1042,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>45</v>
@@ -1049,8 +1085,11 @@
       <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="N4" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="120" x14ac:dyDescent="0.25">
@@ -1088,10 +1127,13 @@
         <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1102,7 +1144,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E6" s="2">
         <v>1001</v>
@@ -1123,27 +1165,27 @@
         <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>22</v>
@@ -1152,36 +1194,39 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -1193,36 +1238,36 @@
         <v>18</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2">
         <v>15</v>
@@ -1231,77 +1276,83 @@
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>89</v>
+      <c r="M9" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2">
         <v>144</v>
@@ -1313,33 +1364,39 @@
         <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E12" s="2">
         <v>30</v>
@@ -1348,39 +1405,39 @@
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2">
         <v>456</v>
@@ -1392,33 +1449,36 @@
         <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
@@ -1433,33 +1493,33 @@
         <v>18</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
@@ -1471,39 +1531,42 @@
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="I15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2">
         <v>35</v>
@@ -1515,36 +1578,39 @@
         <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2">
         <v>456</v>
@@ -1556,33 +1622,33 @@
         <v>18</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
@@ -1597,25 +1663,25 @@
         <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
